--- a/src/TerceraCompetencia/Envio de resultados/Resumen_resultados.xlsx
+++ b/src/TerceraCompetencia/Envio de resultados/Resumen_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fce452423585d2c6/Personal/Maestria Data Mining/economia_finanzas/labo/src/TerceraCompetencia/Envio de resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{762518B0-0298-475D-AE1D-037381C2161E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EFFC720-238C-4EB7-8C4A-E2A0D951FF44}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{762518B0-0298-475D-AE1D-037381C2161E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BEDEFC3-E684-4F03-AEEB-C0A51C5442D3}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3255" windowWidth="21600" windowHeight="11235" xr2:uid="{164F369D-49E1-4DFC-A3A5-874D3C47BC94}"/>
+    <workbookView xWindow="7845" yWindow="1290" windowWidth="22590" windowHeight="15345" xr2:uid="{164F369D-49E1-4DFC-A3A5-874D3C47BC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Semilla</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Envios</t>
+  </si>
+  <si>
+    <t>Modelo 1</t>
+  </si>
+  <si>
+    <t>Modelo 2</t>
   </si>
 </sst>
 </file>
@@ -143,6 +149,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Kaggle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -191,61 +227,133 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Sheet1!$B$4:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7500</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8500</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9500</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10500</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11000</c:v>
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>48.551949999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.711790000000001</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.07208</c:v>
+                  <c:v>52.751309999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.311239999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.552210000000002</c:v>
+                  <c:v>52.551380000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.031329999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.152329999999999</c:v>
+                  <c:v>52.191490000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.431130000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.232190000000003</c:v>
+                  <c:v>53.431319999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.271189999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.191400000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.55153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.631709999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.47193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.432139999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,52 +378,124 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Sheet1!$B$4:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7500</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8500</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9500</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10500</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11000</c:v>
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
+              <c:f>Sheet1!$D$4:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49.871729999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.591850000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.031799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.551580000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.31147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.551609999999997</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.392319999999998</c:v>
+                  <c:v>50.51182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.791960000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.47186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.351570000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.151800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,7 +503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8224-493C-9405-7876E11B06BC}"/>
+              <c16:uniqueId val="{00000000-063E-45CB-87F5-FED17BFB5856}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -340,191 +520,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Sheet1!$B$4:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7500</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8500</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9500</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10500</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11000</c:v>
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$12</c:f>
+              <c:f>Sheet1!$E$4:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>50.871600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.311750000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.591889999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.91151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.99118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.191330000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.351489999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.271700000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.591839999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.991439999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.071620000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.431750000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8224-493C-9405-7876E11B06BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8224-493C-9405-7876E11B06BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$4:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8224-493C-9405-7876E11B06BC}"/>
+              <c16:uniqueId val="{00000001-063E-45CB-87F5-FED17BFB5856}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -543,6 +664,8 @@
         <c:axId val="1278593791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1306,16 +1429,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1640,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B953A3-67F7-4889-9634-ED3B86202567}">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1675,6 +1798,12 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -1683,81 +1812,219 @@
       <c r="B4">
         <v>7000</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="4">
+        <v>48.551949999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>49.871729999999999</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5">
-        <f>+B4+500</f>
-        <v>7500</v>
+        <f>+B4+1000</f>
+        <v>8000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>49.711790000000001</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>50.871600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6">
-        <f>+B5+500</f>
-        <v>8000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>48.07208</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <f t="shared" ref="B6" si="0">+B5+1000</f>
+        <v>9000</v>
+      </c>
+      <c r="C6">
+        <v>52.751309999999997</v>
+      </c>
+      <c r="D6">
+        <v>49.591850000000001</v>
+      </c>
+      <c r="E6">
+        <v>50.311750000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7">
-        <f t="shared" ref="B7:B12" si="0">+B6+500</f>
-        <v>8500</v>
+        <v>9500</v>
+      </c>
+      <c r="C7">
+        <v>53.311239999999998</v>
+      </c>
+      <c r="D7">
+        <v>50.031799999999997</v>
+      </c>
+      <c r="E7">
+        <v>49.591889999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <f>+B6+1000</f>
+        <v>10000</v>
       </c>
       <c r="C8" s="2">
-        <v>47.552210000000002</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>52.551380000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>49.031999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>51.91151</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9">
-        <f>+B8+500</f>
-        <v>9500</v>
+        <v>10500</v>
+      </c>
+      <c r="C9" s="2">
+        <v>53.031329999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>51.551580000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>53.99118</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>47.152329999999999</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <f>+B8+1000</f>
+        <v>11000</v>
+      </c>
+      <c r="C10">
+        <v>52.191490000000002</v>
+      </c>
+      <c r="D10">
+        <v>52.31147</v>
+      </c>
+      <c r="E10">
+        <v>53.191330000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>11500</v>
+      </c>
+      <c r="C11">
+        <v>54.431130000000003</v>
+      </c>
+      <c r="D11">
+        <v>51.551609999999997</v>
+      </c>
+      <c r="E11">
+        <v>52.351489999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>48.232190000000003</v>
+        <f>+B10+1000</f>
+        <v>12000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>53.431319999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>47.392319999999998</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>50.51182</v>
+      </c>
+      <c r="E12" s="2">
+        <v>51.271700000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13">
+        <v>12500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>54.271189999999997</v>
+      </c>
+      <c r="D13" s="2">
+        <v>49.791960000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50.591839999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14">
+        <f>+B12+1000</f>
+        <v>13000</v>
+      </c>
+      <c r="C14">
+        <v>53.191400000000002</v>
+      </c>
+      <c r="D14">
+        <v>50.47186</v>
+      </c>
+      <c r="E14">
+        <v>52.991439999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15">
+        <v>13500</v>
+      </c>
+      <c r="C15">
+        <v>52.55153</v>
+      </c>
+      <c r="D15">
+        <v>52.351570000000002</v>
+      </c>
+      <c r="E15">
+        <v>52.071620000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16">
+        <f>+B14+1000</f>
+        <v>14000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>51.631709999999998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>51.151800000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>51.431750000000001</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>14500</v>
+      </c>
+      <c r="C17">
+        <v>50.47193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>15000</v>
+      </c>
+      <c r="C18">
+        <v>49.432139999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>16500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
